--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -1130,34 +1130,34 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803683</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833882</v>
+        <v>0.9526279647833881</v>
       </c>
       <c r="Q2">
-        <v>-8.693741207553275E-11</v>
+        <v>-8.693275188846798E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999999071</v>
+        <v>-179.9999999999072</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1201,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464771</v>
+        <v>0.9526279474464776</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172763</v>
+        <v>0.952627982117276</v>
       </c>
       <c r="Q3">
-        <v>8.709502424387457E-08</v>
+        <v>8.709501657257784E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128962</v>
+        <v>179.9999999128961</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777248</v>
+        <v>0.9526279330777269</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860248</v>
+        <v>0.952627996486025</v>
       </c>
       <c r="Q4">
-        <v>5.191989589406266E-07</v>
+        <v>5.191990286723927E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027251</v>
+        <v>0.9526279361027254</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627993461025</v>
+        <v>0.9526279934610248</v>
       </c>
       <c r="Q5">
-        <v>4.282296720989935E-07</v>
+        <v>4.282296557686363E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652242</v>
+        <v>0.9526279315652249</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985247</v>
+        <v>0.9526279979985243</v>
       </c>
       <c r="Q6">
-        <v>5.646835271261655E-07</v>
+        <v>5.646835181125822E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353076</v>
+        <v>179.9999994353075</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279277839736</v>
+        <v>0.952627927783974</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797745</v>
+        <v>0.9526280017797744</v>
       </c>
       <c r="Q7">
-        <v>6.78395075273015E-07</v>
+        <v>6.783950620818034E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277234</v>
+        <v>0.9526279270277241</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360245</v>
+        <v>0.9526280025360244</v>
       </c>
       <c r="Q8">
-        <v>7.011373855344089E-07</v>
+        <v>7.011373684505741E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152232</v>
+        <v>0.9526279255152237</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485244</v>
+        <v>0.9526280040485241</v>
       </c>
       <c r="Q9">
-        <v>7.466220022037394E-07</v>
+        <v>7.4662198883262E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992533691</v>
+        <v>179.999999253369</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027229</v>
+        <v>0.9526279240027233</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610244</v>
+        <v>0.9526280055610241</v>
       </c>
       <c r="Q10">
-        <v>7.921066161896725E-07</v>
+        <v>7.921065988546787E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078845</v>
+        <v>179.9999992078844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464729</v>
+        <v>0.9526279232464733</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172745</v>
+        <v>0.9526280063172743</v>
       </c>
       <c r="Q11">
-        <v>8.148489206917171E-07</v>
+        <v>8.14848907174536E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777264</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860265</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q12">
-        <v>1.55321937879226E-07</v>
+        <v>1.553219302477701E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777264</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860265</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q13">
-        <v>1.55321937879226E-07</v>
+        <v>1.553219302477701E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089762</v>
+        <v>0.9526279429089771</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547759</v>
+        <v>0.9526279866547757</v>
       </c>
       <c r="Q14">
-        <v>2.235489021707923E-07</v>
+        <v>2.235489234074286E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964761</v>
+        <v>0.9526279413964764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672758</v>
+        <v>0.9526279881672755</v>
       </c>
       <c r="Q15">
-        <v>2.690335014702171E-07</v>
+        <v>2.690334894599909E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309577</v>
+        <v>179.9999997309576</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339767</v>
+        <v>0.9526279459339773</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297764</v>
+        <v>0.9526279836297763</v>
       </c>
       <c r="Q16">
-        <v>1.325796267138855E-07</v>
+        <v>1.325796191198349E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339767</v>
+        <v>0.9526279459339773</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297764</v>
+        <v>0.9526279836297763</v>
       </c>
       <c r="Q17">
-        <v>1.325796267138855E-07</v>
+        <v>1.325796191198349E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277257</v>
+        <v>0.9526279391277269</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0.9526279904360254</v>
       </c>
       <c r="Q18">
-        <v>3.372604676007686E-07</v>
+        <v>3.372605098476331E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027252</v>
+        <v>0.9526279361027268</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610251</v>
+        <v>0.952627993461025</v>
       </c>
       <c r="Q19">
-        <v>4.282297166058694E-07</v>
+        <v>4.282297684927956E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339748</v>
+        <v>0.9526279338339766</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297747</v>
+        <v>0.952627995729775</v>
       </c>
       <c r="Q20">
-        <v>4.964566570810795E-07</v>
+        <v>4.964567189415226E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777248</v>
+        <v>0.9526279330777269</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860248</v>
+        <v>0.952627996486025</v>
       </c>
       <c r="Q21">
-        <v>5.191989631983896E-07</v>
+        <v>5.191990327318629E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
   </sheetData>
@@ -2379,16 +2379,16 @@
         <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714036</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646412</v>
+        <v>0.01094540889646411</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -2462,7 +2462,7 @@
         <v>1.084507397579257</v>
       </c>
       <c r="Q3">
-        <v>29.14059841519042</v>
+        <v>29.14059841519043</v>
       </c>
       <c r="R3">
         <v>-91.10214742097257</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764509</v>
+        <v>29.14059842764508</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620756</v>
+        <v>1.073936237620757</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -2993,7 +2993,7 @@
         <v>1.084507397637146</v>
       </c>
       <c r="Q12">
-        <v>29.14059841639571</v>
+        <v>29.14059841639572</v>
       </c>
       <c r="R12">
         <v>-91.10214741295322</v>
@@ -3052,7 +3052,7 @@
         <v>1.084507397637146</v>
       </c>
       <c r="Q13">
-        <v>29.14059841639571</v>
+        <v>29.14059841639572</v>
       </c>
       <c r="R13">
         <v>-91.10214741295322</v>
@@ -3111,7 +3111,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.140598417601</v>
+        <v>29.14059841760101</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3164,13 +3164,13 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.073936237892289</v>
+        <v>1.07393623789229</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
       </c>
       <c r="Q15">
-        <v>29.14059841840453</v>
+        <v>29.14059841840454</v>
       </c>
       <c r="R15">
         <v>-91.10214739958759</v>
@@ -3229,7 +3229,7 @@
         <v>1.084507397617849</v>
       </c>
       <c r="Q16">
-        <v>29.14059841599395</v>
+        <v>29.14059841599396</v>
       </c>
       <c r="R16">
         <v>-91.10214741562633</v>
@@ -3288,7 +3288,7 @@
         <v>1.084507397617849</v>
       </c>
       <c r="Q17">
-        <v>29.14059841599395</v>
+        <v>29.14059841599396</v>
       </c>
       <c r="R17">
         <v>-91.10214741562633</v>
@@ -3634,13 +3634,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740624</v>
+        <v>1.073936237740625</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809507</v>
+        <v>1.102503198809508</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4062,7 +4062,7 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627485</v>
+        <v>1.073936237627486</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
@@ -4363,10 +4363,10 @@
         <v>1.084507397705908</v>
       </c>
       <c r="Q14">
-        <v>29.14059841750816</v>
+        <v>29.14059841750815</v>
       </c>
       <c r="R14">
-        <v>-91.10214740282214</v>
+        <v>-91.10214740282215</v>
       </c>
       <c r="S14">
         <v>150.327962620929</v>
@@ -4422,7 +4422,7 @@
         <v>1.084507397744501</v>
       </c>
       <c r="Q15">
-        <v>29.14059841831169</v>
+        <v>29.14059841831168</v>
       </c>
       <c r="R15">
         <v>-91.1021473974759</v>
@@ -4481,7 +4481,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R16">
         <v>-91.10214741351464</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4599,7 +4599,7 @@
         <v>1.08450739780239</v>
       </c>
       <c r="Q18">
-        <v>29.14059841951698</v>
+        <v>29.14059841951697</v>
       </c>
       <c r="R18">
         <v>-91.10214738945653</v>
@@ -4661,7 +4661,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R19">
-        <v>-91.10214737876403</v>
+        <v>-91.10214737876404</v>
       </c>
       <c r="S19">
         <v>150.3279626289879</v>
@@ -4717,7 +4717,7 @@
         <v>1.084507397937464</v>
       </c>
       <c r="Q20">
-        <v>29.14059842232932</v>
+        <v>29.14059842232931</v>
       </c>
       <c r="R20">
         <v>-91.10214737074467</v>
@@ -4770,7 +4770,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O21">
-        <v>1.073936237740624</v>
+        <v>1.073936237740625</v>
       </c>
       <c r="P21">
         <v>1.084507397956761</v>
@@ -4880,34 +4880,34 @@
         <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849897</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.72008026738463E-10</v>
+        <v>1.720089615089155E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054658</v>
+        <v>0.8660254194054656</v>
       </c>
       <c r="Q3">
-        <v>8.65929750879765E-08</v>
+        <v>8.659294230909709E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015297</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679624</v>
       </c>
       <c r="Q4">
-        <v>9.162327728425871E-07</v>
+        <v>9.162327259696443E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5075,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179634</v>
+        <v>0.8660254297179629</v>
       </c>
       <c r="Q5">
-        <v>7.415718245273003E-07</v>
+        <v>7.415717898733934E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5140,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429622</v>
+        <v>0.8660254338429618</v>
       </c>
       <c r="Q6">
-        <v>1.003563372008883E-06</v>
+        <v>1.003563337146987E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.221889659076359E-06</v>
+        <v>1.22188962828473E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -5252,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015313</v>
+        <v>0.8660253696015311</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679609</v>
+        <v>0.8660254379679606</v>
       </c>
       <c r="Q8">
-        <v>1.265554902563667E-06</v>
+        <v>1.265554880233112E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265313</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429606</v>
+        <v>0.8660254393429604</v>
       </c>
       <c r="Q9">
-        <v>1.352885432299792E-06</v>
+        <v>1.352885401412723E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5370,16 +5370,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515318</v>
+        <v>0.8660253668515316</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179603</v>
       </c>
       <c r="Q10">
-        <v>1.440215951782804E-06</v>
+        <v>1.440215920837813E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5429,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054603</v>
+        <v>0.86602544140546</v>
       </c>
       <c r="Q11">
-        <v>1.483881204011456E-06</v>
+        <v>1.483881173046059E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5488,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015285</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679656</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q12">
-        <v>2.17588746672302E-07</v>
+        <v>2.175887167211856E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015285</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679656</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q13">
-        <v>2.17588746672302E-07</v>
+        <v>2.175887167211856E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.866025423530465</v>
+        <v>0.8660254235304647</v>
       </c>
       <c r="Q14">
-        <v>3.485844859174236E-07</v>
+        <v>3.4858444662537E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.8660253826640286</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054645</v>
+        <v>0.8660254249054642</v>
       </c>
       <c r="Q15">
-        <v>4.359150277146149E-07</v>
+        <v>4.359149933062135E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890283</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804657</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q16">
-        <v>1.73923492213419E-07</v>
+        <v>1.739234665234481E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890283</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804657</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q17">
-        <v>1.73923492213419E-07</v>
+        <v>1.739234665234481E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015288</v>
+        <v>0.866025380601529</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679643</v>
+        <v>0.8660254269679637</v>
       </c>
       <c r="Q18">
-        <v>5.669107533133141E-07</v>
+        <v>5.669107107881914E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515293</v>
+        <v>0.8660253778515296</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179636</v>
+        <v>0.8660254297179634</v>
       </c>
       <c r="Q19">
-        <v>7.415717650998014E-07</v>
+        <v>7.41571715772334E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890295</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804628</v>
+        <v>0.8660254317804624</v>
       </c>
       <c r="Q20">
-        <v>8.725675198844635E-07</v>
+        <v>8.72567468134868E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015297</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679625</v>
       </c>
       <c r="Q21">
-        <v>9.162327628171489E-07</v>
+        <v>9.162327068064077E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -6132,34 +6132,34 @@
         <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849897</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.72008026738463E-10</v>
+        <v>1.720089615089155E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054658</v>
+        <v>0.8660254194054656</v>
       </c>
       <c r="Q3">
-        <v>8.65929750879765E-08</v>
+        <v>8.659294230909709E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015297</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679624</v>
       </c>
       <c r="Q4">
-        <v>9.162327728425871E-07</v>
+        <v>9.162327259696443E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6327,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179634</v>
+        <v>0.8660254297179629</v>
       </c>
       <c r="Q5">
-        <v>7.415718245273003E-07</v>
+        <v>7.415717898733934E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429622</v>
+        <v>0.8660254338429618</v>
       </c>
       <c r="Q6">
-        <v>1.003563372008883E-06</v>
+        <v>1.003563337146987E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6451,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.221889659076359E-06</v>
+        <v>1.22188962828473E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015313</v>
+        <v>0.8660253696015311</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679609</v>
+        <v>0.8660254379679606</v>
       </c>
       <c r="Q8">
-        <v>1.265554902563667E-06</v>
+        <v>1.265554880233112E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265313</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429606</v>
+        <v>0.8660254393429604</v>
       </c>
       <c r="Q9">
-        <v>1.352885432299792E-06</v>
+        <v>1.352885401412723E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6622,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515318</v>
+        <v>0.8660253668515316</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179603</v>
       </c>
       <c r="Q10">
-        <v>1.440215951782804E-06</v>
+        <v>1.440215920837813E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6681,16 +6681,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054603</v>
+        <v>0.86602544140546</v>
       </c>
       <c r="Q11">
-        <v>1.483881204011456E-06</v>
+        <v>1.483881173046059E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015285</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679656</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q12">
-        <v>2.17588746672302E-07</v>
+        <v>2.175887167211856E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015285</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679656</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q13">
-        <v>2.17588746672302E-07</v>
+        <v>2.175887167211856E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.866025423530465</v>
+        <v>0.8660254235304647</v>
       </c>
       <c r="Q14">
-        <v>3.485844859174236E-07</v>
+        <v>3.4858444662537E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.8660253826640286</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054645</v>
+        <v>0.8660254249054642</v>
       </c>
       <c r="Q15">
-        <v>4.359150277146149E-07</v>
+        <v>4.359149933062135E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890283</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804657</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q16">
-        <v>1.73923492213419E-07</v>
+        <v>1.739234665234481E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890283</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804657</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q17">
-        <v>1.73923492213419E-07</v>
+        <v>1.739234665234481E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015288</v>
+        <v>0.866025380601529</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679643</v>
+        <v>0.8660254269679637</v>
       </c>
       <c r="Q18">
-        <v>5.669107533133141E-07</v>
+        <v>5.669107107881914E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515293</v>
+        <v>0.8660253778515296</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179636</v>
+        <v>0.8660254297179634</v>
       </c>
       <c r="Q19">
-        <v>7.415717650998014E-07</v>
+        <v>7.41571715772334E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890295</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804628</v>
+        <v>0.8660254317804624</v>
       </c>
       <c r="Q20">
-        <v>8.725675198844635E-07</v>
+        <v>8.72567468134868E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015297</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679625</v>
       </c>
       <c r="Q21">
-        <v>9.162327628171489E-07</v>
+        <v>9.162327068064077E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -7384,19 +7384,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -7467,7 +7467,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7523,7 +7523,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -7535,7 +7535,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7588,10 +7588,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S5">
         <v>150.3745452978639</v>
@@ -7641,7 +7641,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -7703,10 +7703,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879738</v>
+        <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
         <v>-91.2483935596738</v>
@@ -7818,7 +7818,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208044</v>
+        <v>0.9731342573208043</v>
       </c>
       <c r="P9">
         <v>0.9840663106779517</v>
@@ -7827,7 +7827,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812686</v>
+        <v>-91.24839354812687</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7936,10 +7936,10 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363819</v>
+        <v>0.9731342573363818</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
@@ -7995,7 +7995,7 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
@@ -8054,7 +8054,7 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
@@ -8116,10 +8116,10 @@
         <v>0.9731342572013758</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881211</v>
+        <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8231,19 +8231,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8290,19 +8290,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S17">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8349,10 +8349,10 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273386</v>
+        <v>0.9731342572273385</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380842</v>
+        <v>0.9840663101380841</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
@@ -8408,7 +8408,7 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
@@ -8470,7 +8470,7 @@
         <v>0.9731342572636862</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -8526,7 +8526,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -8538,7 +8538,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
   </sheetData>
@@ -8636,19 +8636,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -8719,7 +8719,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8775,7 +8775,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -8787,7 +8787,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8840,10 +8840,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S5">
         <v>150.3745452978639</v>
@@ -8893,7 +8893,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -8955,10 +8955,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879738</v>
+        <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
         <v>-91.2483935596738</v>
@@ -9070,7 +9070,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208044</v>
+        <v>0.9731342573208043</v>
       </c>
       <c r="P9">
         <v>0.9840663106779517</v>
@@ -9079,7 +9079,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812686</v>
+        <v>-91.24839354812687</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9188,10 +9188,10 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363819</v>
+        <v>0.9731342573363818</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
@@ -9247,7 +9247,7 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
@@ -9306,7 +9306,7 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
@@ -9368,10 +9368,10 @@
         <v>0.9731342572013758</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881211</v>
+        <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9483,19 +9483,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9542,19 +9542,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S17">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9601,10 +9601,10 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273386</v>
+        <v>0.9731342572273385</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380842</v>
+        <v>0.9840663101380841</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
@@ -9660,7 +9660,7 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
@@ -9722,7 +9722,7 @@
         <v>0.9731342572636862</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -9778,7 +9778,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -9790,7 +9790,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
   </sheetData>
@@ -9873,7 +9873,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391564</v>
+        <v>57.73503019391566</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412837</v>
+        <v>333.3333522412838</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9891,10 +9891,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219866</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723507</v>
+        <v>0.1094540870723506</v>
       </c>
       <c r="J2">
         <v>0.01094540888868895</v>
@@ -9909,25 +9909,25 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664725</v>
+        <v>0.6350853099664723</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585751</v>
+        <v>0.635085309858575</v>
       </c>
       <c r="Q2">
         <v>60.00000000061767</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391563</v>
+        <v>57.73503019391566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9977,13 +9977,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114492</v>
+        <v>0.6350852941114495</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762071</v>
+        <v>60.00000073762067</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
         <v>120.0000009916559</v>
@@ -10033,19 +10033,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279444</v>
+        <v>0.6350853458279437</v>
       </c>
       <c r="O4">
         <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906015</v>
+        <v>0.6350852838906026</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789079</v>
+        <v>60.00000083789072</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
         <v>120.0000023882381</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085341929701</v>
+        <v>0.6350853419297008</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423593</v>
+        <v>0.6350852860423595</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678136</v>
+        <v>60.00000081678131</v>
       </c>
       <c r="R5">
         <v>-89.99999999999569</v>
       </c>
       <c r="S5">
-        <v>120.0000020942206</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770638</v>
+        <v>0.6350853477770637</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147231</v>
+        <v>0.6350852828147234</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844565</v>
+        <v>60.00000084844559</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498664</v>
+        <v>0.6350853526498663</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250262</v>
+        <v>0.6350852801250265</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483254</v>
+        <v>60.00000087483249</v>
       </c>
       <c r="R7">
         <v>-89.99999999999568</v>
       </c>
       <c r="S7">
-        <v>120.0000029027681</v>
+        <v>120.0000029027682</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870867</v>
+        <v>0.6350852795870873</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010992</v>
+        <v>60.00000088010987</v>
       </c>
       <c r="R8">
         <v>-89.99999999999568</v>
@@ -10343,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735477</v>
+        <v>0.6350853555735476</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112082</v>
+        <v>0.6350852785112086</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066469</v>
+        <v>60.00000089066464</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S9">
         <v>120.0000031232811</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226686</v>
+        <v>0.6350853575226685</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353294</v>
+        <v>0.6350852774353298</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121947</v>
+        <v>60.00000090121942</v>
       </c>
       <c r="R10">
         <v>-89.99999999999565</v>
       </c>
       <c r="S10">
-        <v>120.0000032702897</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635085358497229</v>
+        <v>0.6350853584972289</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973898</v>
+        <v>0.6350852768973902</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649687</v>
+        <v>60.00000090649683</v>
       </c>
       <c r="R11">
         <v>-89.99999999999564</v>
       </c>
       <c r="S11">
-        <v>120.000003343794</v>
+        <v>120.0000033437941</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976305</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345294</v>
+        <v>60.00000075345287</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
         <v>120.0000012121688</v>
@@ -10597,13 +10597,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976305</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345294</v>
+        <v>60.00000075345287</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
         <v>120.0000012121688</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586571</v>
+        <v>0.6350853331586568</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838132</v>
+        <v>0.6350852908838138</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928494</v>
+        <v>60.00000076928487</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>120.0000014326818</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077776</v>
+        <v>0.6350853351077775</v>
       </c>
       <c r="O15">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079345</v>
+        <v>0.6350852898079349</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983972</v>
+        <v>60.00000077983967</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S15">
         <v>120.0000015796904</v>
@@ -10777,19 +10777,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604145</v>
+        <v>0.6350853292604144</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355703</v>
+        <v>0.6350852930355706</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817552</v>
+        <v>60.00000074817547</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
         <v>120.0000011386645</v>
@@ -10839,19 +10839,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604145</v>
+        <v>0.6350853292604144</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355703</v>
+        <v>0.6350852930355706</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817552</v>
+        <v>60.00000074817547</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
         <v>120.0000011386645</v>
@@ -10901,19 +10901,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314599</v>
+        <v>0.6350853380314595</v>
       </c>
       <c r="O18">
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941167</v>
+        <v>0.6350852881941174</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567177</v>
+        <v>60.00000079567174</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S18">
         <v>120.0000018002035</v>
@@ -10963,19 +10963,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297021</v>
+        <v>0.6350853419297018</v>
       </c>
       <c r="O19">
         <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423593</v>
+        <v>0.63508528604236</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678127</v>
+        <v>60.00000081678122</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
         <v>120.0000020942208</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085344853384</v>
+        <v>0.6350853448533833</v>
       </c>
       <c r="O20">
         <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285411</v>
+        <v>0.6350852844285421</v>
       </c>
       <c r="Q20">
-        <v>60.0000008326134</v>
+        <v>60.00000083261333</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>120.0000023147337</v>
+        <v>120.0000023147338</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,19 +11087,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279444</v>
+        <v>0.6350853458279437</v>
       </c>
       <c r="O21">
         <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906015</v>
+        <v>0.6350852838906026</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789077</v>
+        <v>60.00000083789072</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
         <v>120.0000023882381</v>
@@ -11212,19 +11212,19 @@
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868897</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646502</v>
+        <v>0.01094540889646504</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664719</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -11233,7 +11233,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.0000000006177</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11292,13 +11292,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615856</v>
+        <v>0.6350852933615855</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271607</v>
+        <v>60.00000077271611</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S3">
         <v>120.0000010386397</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538873</v>
+        <v>0.635085346653888</v>
       </c>
       <c r="O4">
         <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407382</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298611</v>
+        <v>60.00000087298629</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S4">
-        <v>120.0000024352217</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11416,16 +11416,16 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924956</v>
+        <v>0.6350852852924953</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187672</v>
+        <v>60.00000085187678</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
-        <v>120.0000021412044</v>
+        <v>120.0000021412045</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030079</v>
+        <v>0.6350853486030077</v>
       </c>
       <c r="O6">
         <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648594</v>
+        <v>0.6350852820648593</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354098</v>
+        <v>60.00000088354105</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S6">
-        <v>120.0000025822303</v>
+        <v>120.0000025822304</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758104</v>
+        <v>0.6350853534758103</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751627</v>
+        <v>0.6350852793751625</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992788</v>
+        <v>60.00000090992793</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S7">
-        <v>120.0000029497519</v>
+        <v>120.000002949752</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,19 +11596,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503708</v>
+        <v>0.6350853544503707</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372232</v>
+        <v>0.6350852788372229</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520526</v>
+        <v>60.00000091520531</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S8">
         <v>120.0000030232563</v>
@@ -11664,13 +11664,13 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613447</v>
+        <v>0.6350852777613445</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576002</v>
+        <v>60.00000092576008</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S9">
         <v>120.0000031702649</v>
@@ -11726,16 +11726,16 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854659</v>
+        <v>0.6350852766854657</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631482</v>
+        <v>60.00000093631487</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S10">
-        <v>120.0000033172735</v>
+        <v>120.0000033172736</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231731</v>
+        <v>0.6350853593231729</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475263</v>
+        <v>0.6350852761475261</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159221</v>
+        <v>60.00000094159228</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S11">
-        <v>120.0000033907778</v>
+        <v>120.0000033907779</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,19 +11844,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609188</v>
+        <v>0.6350853310609187</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477668</v>
+        <v>0.6350852917477667</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854828</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
         <v>120.0000012591526</v>
@@ -11906,19 +11906,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609188</v>
+        <v>0.6350853310609187</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477668</v>
+        <v>0.6350852917477667</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854828</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
         <v>120.0000012591526</v>
@@ -11968,19 +11968,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846005</v>
+        <v>0.6350853339846009</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339498</v>
+        <v>0.6350852901339494</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438027</v>
+        <v>60.00000080438035</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
         <v>120.0000014796656</v>
@@ -12030,19 +12030,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337216</v>
+        <v>0.6350853359337215</v>
       </c>
       <c r="O15">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580708</v>
+        <v>0.6350852890580707</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493507</v>
+        <v>60.00000081493513</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S15">
         <v>120.0000016266742</v>
@@ -12098,13 +12098,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857065</v>
+        <v>0.6350852922857064</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327087</v>
+        <v>60.00000078327092</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S16">
         <v>120.0000011856483</v>
@@ -12160,13 +12160,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857065</v>
+        <v>0.6350852922857064</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327087</v>
+        <v>60.00000078327092</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S17">
         <v>120.0000011856483</v>
@@ -12216,19 +12216,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574031</v>
+        <v>0.6350853388574036</v>
       </c>
       <c r="O18">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442533</v>
+        <v>0.6350852874442527</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076711</v>
+        <v>60.00000083076723</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S18">
         <v>120.0000018471872</v>
@@ -12278,19 +12278,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556452</v>
+        <v>0.6350853427556459</v>
       </c>
       <c r="O19">
         <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.635085285292496</v>
+        <v>0.6350852852924953</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187658</v>
+        <v>60.00000085187674</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
         <v>120.0000021412045</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793268</v>
+        <v>0.6350853456793276</v>
       </c>
       <c r="O20">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786779</v>
+        <v>0.635085283678677</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770871</v>
+        <v>60.00000086770888</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
-        <v>120.0000023617174</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538873</v>
+        <v>0.635085346653888</v>
       </c>
       <c r="O21">
         <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407383</v>
+        <v>0.6350852831407375</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298609</v>
+        <v>60.00000087298626</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S21">
-        <v>120.0000024352217</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12521,10 +12521,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219866</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723507</v>
+        <v>0.1094540870723506</v>
       </c>
       <c r="J2">
         <v>0.01094540888868895</v>
@@ -12982,7 +12982,7 @@
         <v>1.096496877541267</v>
       </c>
       <c r="Q9">
-        <v>29.92212963728438</v>
+        <v>29.92212963728439</v>
       </c>
       <c r="R9">
         <v>-89.99999999999635</v>
@@ -13165,7 +13165,7 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877805574</v>
+        <v>1.096496877805573</v>
       </c>
       <c r="Q12">
         <v>29.92212961775842</v>
@@ -13227,7 +13227,7 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877805574</v>
+        <v>1.096496877805573</v>
       </c>
       <c r="Q13">
         <v>29.92212961775842</v>
@@ -13354,7 +13354,7 @@
         <v>1.096496877754745</v>
       </c>
       <c r="Q15">
-        <v>29.92212962151342</v>
+        <v>29.92212962151341</v>
       </c>
       <c r="R15">
         <v>-89.99999999999635</v>
@@ -13540,7 +13540,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376641</v>
+        <v>29.92212962376642</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -14338,13 +14338,13 @@
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868897</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646502</v>
+        <v>0.01094540889646504</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
@@ -14421,7 +14421,7 @@
         <v>1.096496877823413</v>
       </c>
       <c r="Q3">
-        <v>29.922129616241</v>
+        <v>29.92212961624099</v>
       </c>
       <c r="R3">
         <v>-89.99999999999635</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.090352557053718</v>
+        <v>1.090352557053719</v>
       </c>
       <c r="O10">
         <v>1.100000023842583</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496877498112</v>
       </c>
       <c r="Q11">
-        <v>29.92212964027296</v>
+        <v>29.92212964027295</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14979,7 +14979,7 @@
         <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
         <v>-89.99999999999636</v>
@@ -15041,7 +15041,7 @@
         <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
         <v>-89.99999999999636</v>
@@ -15168,7 +15168,7 @@
         <v>29.92212962224898</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S15">
         <v>149.5246566761969</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383258</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15653,10 +15653,10 @@
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940178</v>
+        <v>0.1243796443940179</v>
       </c>
       <c r="L2">
         <v>0.01243796465911722</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962951</v>
@@ -15674,7 +15674,7 @@
         <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075387</v>
+        <v>60.00000000075386</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15683,7 +15683,7 @@
         <v>120.0000000016444</v>
       </c>
       <c r="T2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -15727,19 +15727,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857102</v>
+        <v>0.5773502855857101</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027884</v>
+        <v>0.5773502543027886</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610988</v>
+        <v>60.00000076610992</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
         <v>120.0000010262632</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881826</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962951</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802634</v>
+        <v>0.5773502484802625</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007616</v>
+        <v>60.00000027007624</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
-        <v>120.0000030191491</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,19 +15851,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613977</v>
+        <v>0.5773503016139772</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060589</v>
+        <v>0.5773502497060591</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450426</v>
+        <v>60.00000037450429</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -15913,19 +15913,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252838</v>
+        <v>0.577350308025284</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673671</v>
+        <v>0.5773502478673673</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786201</v>
+        <v>60.00000021786203</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -15975,19 +15975,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680394</v>
+        <v>0.5773503133680395</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351241</v>
+        <v>0.5773502463351243</v>
       </c>
       <c r="Q7">
         <v>60.00000008732682</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S7">
         <v>120.0000037533702</v>
@@ -16040,16 +16040,16 @@
         <v>0.5773503144365906</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286756</v>
+        <v>0.5773502460286757</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121977</v>
+        <v>60.00000006121979</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -16102,16 +16102,16 @@
         <v>0.5773503165736928</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157783</v>
+        <v>0.5773502454157786</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900568</v>
+        <v>60.0000000090057</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -16161,19 +16161,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107949</v>
+        <v>0.5773503187107951</v>
       </c>
       <c r="O10">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028811</v>
+        <v>0.5773502448028813</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679161</v>
+        <v>59.99999995679162</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -16226,19 +16226,19 @@
         <v>0.5773503197793463</v>
       </c>
       <c r="O11">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964326</v>
+        <v>0.5773502444964328</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068456</v>
+        <v>59.99999993068457</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S11">
-        <v>120.0000043827025</v>
+        <v>120.0000043827026</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16288,16 +16288,16 @@
         <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834425</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778875</v>
+        <v>60.00000068778877</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S12">
         <v>120.0000013409294</v>
@@ -16350,16 +16350,16 @@
         <v>0.5773502887913637</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834425</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778875</v>
+        <v>60.00000068778877</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -16409,19 +16409,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970173</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640962</v>
+        <v>0.5773502524640961</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946764</v>
+        <v>60.00000060946769</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S14">
         <v>120.0000016555956</v>
@@ -16474,16 +16474,16 @@
         <v>0.5773502941341192</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.5773502518511994</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725355</v>
+        <v>60.00000055725358</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -16536,16 +16536,16 @@
         <v>0.5773502877228125</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898911</v>
+        <v>0.5773502536898912</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389579</v>
+        <v>60.00000071389582</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -16598,16 +16598,16 @@
         <v>0.5773502877228125</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898911</v>
+        <v>0.5773502536898912</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389579</v>
+        <v>60.00000071389582</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -16663,16 +16663,16 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318528</v>
+        <v>0.5773502509318523</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893246</v>
+        <v>60.00000047893251</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S18">
-        <v>120.0000021800393</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139779</v>
+        <v>0.5773503016139778</v>
       </c>
       <c r="O19">
         <v>0.9999999999962952</v>
       </c>
       <c r="P19">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060573</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450432</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S19">
-        <v>120.0000025995942</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196316</v>
+        <v>0.5773503048196312</v>
       </c>
       <c r="O20">
         <v>0.9999999999962951</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867118</v>
+        <v>0.5773502487867112</v>
       </c>
       <c r="Q20">
-        <v>60.0000002961832</v>
+        <v>60.00000029618327</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S20">
-        <v>120.0000029142604</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881827</v>
+        <v>0.5773503058881824</v>
       </c>
       <c r="O21">
         <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802633</v>
+        <v>0.5773502484802625</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007616</v>
+        <v>60.00000027007624</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S21">
-        <v>120.0000030191491</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383258</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16968,10 +16968,10 @@
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940178</v>
+        <v>0.1243796443940179</v>
       </c>
       <c r="L2">
         <v>0.01243796465911722</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962951</v>
@@ -16989,7 +16989,7 @@
         <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075387</v>
+        <v>60.00000000075386</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -16998,7 +16998,7 @@
         <v>120.0000000016444</v>
       </c>
       <c r="T2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -17042,19 +17042,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857102</v>
+        <v>0.5773502855857101</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027884</v>
+        <v>0.5773502543027886</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610988</v>
+        <v>60.00000076610992</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
         <v>120.0000010262632</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881826</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962951</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802634</v>
+        <v>0.5773502484802625</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007616</v>
+        <v>60.00000027007624</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
-        <v>120.0000030191491</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,19 +17166,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613977</v>
+        <v>0.5773503016139772</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060589</v>
+        <v>0.5773502497060591</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450426</v>
+        <v>60.00000037450429</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -17228,19 +17228,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252838</v>
+        <v>0.577350308025284</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673671</v>
+        <v>0.5773502478673673</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786201</v>
+        <v>60.00000021786203</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -17290,19 +17290,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680394</v>
+        <v>0.5773503133680395</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351241</v>
+        <v>0.5773502463351243</v>
       </c>
       <c r="Q7">
         <v>60.00000008732682</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S7">
         <v>120.0000037533702</v>
@@ -17355,16 +17355,16 @@
         <v>0.5773503144365906</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286756</v>
+        <v>0.5773502460286757</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121977</v>
+        <v>60.00000006121979</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -17417,16 +17417,16 @@
         <v>0.5773503165736928</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157783</v>
+        <v>0.5773502454157786</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900568</v>
+        <v>60.0000000090057</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -17476,19 +17476,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107949</v>
+        <v>0.5773503187107951</v>
       </c>
       <c r="O10">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028811</v>
+        <v>0.5773502448028813</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679161</v>
+        <v>59.99999995679162</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -17541,19 +17541,19 @@
         <v>0.5773503197793463</v>
       </c>
       <c r="O11">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964326</v>
+        <v>0.5773502444964328</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068456</v>
+        <v>59.99999993068457</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S11">
-        <v>120.0000043827025</v>
+        <v>120.0000043827026</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17603,16 +17603,16 @@
         <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834425</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778875</v>
+        <v>60.00000068778877</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S12">
         <v>120.0000013409294</v>
@@ -17665,16 +17665,16 @@
         <v>0.5773502887913637</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834425</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778875</v>
+        <v>60.00000068778877</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -17724,19 +17724,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970173</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640962</v>
+        <v>0.5773502524640961</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946764</v>
+        <v>60.00000060946769</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S14">
         <v>120.0000016555956</v>
@@ -17789,16 +17789,16 @@
         <v>0.5773502941341192</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.5773502518511994</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725355</v>
+        <v>60.00000055725358</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -17851,16 +17851,16 @@
         <v>0.5773502877228125</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898911</v>
+        <v>0.5773502536898912</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389579</v>
+        <v>60.00000071389582</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -17913,16 +17913,16 @@
         <v>0.5773502877228125</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898911</v>
+        <v>0.5773502536898912</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389579</v>
+        <v>60.00000071389582</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -17978,16 +17978,16 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318528</v>
+        <v>0.5773502509318523</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893246</v>
+        <v>60.00000047893251</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S18">
-        <v>120.0000021800393</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139779</v>
+        <v>0.5773503016139778</v>
       </c>
       <c r="O19">
         <v>0.9999999999962952</v>
       </c>
       <c r="P19">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060573</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450432</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S19">
-        <v>120.0000025995942</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196316</v>
+        <v>0.5773503048196312</v>
       </c>
       <c r="O20">
         <v>0.9999999999962951</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867118</v>
+        <v>0.5773502487867112</v>
       </c>
       <c r="Q20">
-        <v>60.0000002961832</v>
+        <v>60.00000029618327</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S20">
-        <v>120.0000029142604</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881827</v>
+        <v>0.5773503058881824</v>
       </c>
       <c r="O21">
         <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802633</v>
+        <v>0.5773502484802625</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007616</v>
+        <v>60.00000027007624</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S21">
-        <v>120.0000030191491</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18283,10 +18283,10 @@
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940178</v>
+        <v>0.1243796443940179</v>
       </c>
       <c r="L2">
         <v>0.01243796465911722</v>
@@ -18363,7 +18363,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -18425,7 +18425,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553426</v>
+        <v>0.9963798867553425</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618046</v>
+        <v>0.9900480149618045</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -18735,13 +18735,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731364</v>
+        <v>0.9963798866731365</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S9">
         <v>149.460757329986</v>
@@ -19101,13 +19101,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480148184077</v>
+        <v>0.9900480148184078</v>
       </c>
       <c r="O15">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P15">
-        <v>0.9963798868457693</v>
+        <v>0.9963798868457695</v>
       </c>
       <c r="Q15">
         <v>29.91230408433825</v>
@@ -19169,7 +19169,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.996379886895093</v>
+        <v>0.9963798868950929</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -19231,7 +19231,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.996379886895093</v>
+        <v>0.9963798868950929</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19411,16 +19411,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480149287129</v>
+        <v>0.990048014928713</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635634</v>
+        <v>0.9963798867635631</v>
       </c>
       <c r="Q20">
-        <v>29.91230409342569</v>
+        <v>29.9123040934257</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -19598,10 +19598,10 @@
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940178</v>
+        <v>0.1243796443940179</v>
       </c>
       <c r="L2">
         <v>0.01243796465911722</v>
@@ -19678,7 +19678,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -19740,7 +19740,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553426</v>
+        <v>0.9963798867553425</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618046</v>
+        <v>0.9900480149618045</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -20050,13 +20050,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731364</v>
+        <v>0.9963798866731365</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S9">
         <v>149.460757329986</v>
@@ -20416,13 +20416,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480148184077</v>
+        <v>0.9900480148184078</v>
       </c>
       <c r="O15">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P15">
-        <v>0.9963798868457693</v>
+        <v>0.9963798868457695</v>
       </c>
       <c r="Q15">
         <v>29.91230408433825</v>
@@ -20484,7 +20484,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.996379886895093</v>
+        <v>0.9963798868950929</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -20546,7 +20546,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.996379886895093</v>
+        <v>0.9963798868950929</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20726,16 +20726,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480149287129</v>
+        <v>0.990048014928713</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635634</v>
+        <v>0.9963798867635631</v>
       </c>
       <c r="Q20">
-        <v>29.91230409342569</v>
+        <v>29.9123040934257</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -20895,13 +20895,13 @@
         <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620925</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114188</v>
+        <v>333.3333522114189</v>
       </c>
       <c r="G2">
         <v>333.3333522545259</v>
@@ -20910,31 +20910,31 @@
         <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714036</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646412</v>
+        <v>0.01094540889646411</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.635085309844802</v>
+        <v>0.6350853098448019</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608014</v>
+        <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228448361447637E-09</v>
+        <v>4.228445054094738E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20993,16 +20993,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056283</v>
+        <v>0.6350853272056286</v>
       </c>
       <c r="Q3">
-        <v>9.908897988476629E-07</v>
+        <v>9.908898153839976E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768165</v>
+        <v>0.6350852838768174</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222787</v>
+        <v>0.6350853457222784</v>
       </c>
       <c r="Q4">
-        <v>2.387471842593586E-06</v>
+        <v>2.387471925787119E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575629</v>
+        <v>-179.9999991575628</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21117,10 +21117,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240353</v>
+        <v>0.6350853418240354</v>
       </c>
       <c r="Q5">
-        <v>2.093454470421704E-06</v>
+        <v>2.09345449950915E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21179,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713982</v>
+        <v>0.6350853476713983</v>
       </c>
       <c r="Q6">
-        <v>2.534480359661022E-06</v>
+        <v>2.53448038240014E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112381</v>
+        <v>0.6350852801112382</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -21244,7 +21244,7 @@
         <v>0.6350853525442006</v>
       </c>
       <c r="Q7">
-        <v>2.902001937119605E-06</v>
+        <v>2.902001959395535E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -21297,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732985</v>
+        <v>0.6350852795732989</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187611</v>
+        <v>0.6350853535187614</v>
       </c>
       <c r="Q8">
-        <v>2.97550624867461E-06</v>
+        <v>2.975506270896611E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999991153439</v>
+        <v>-179.9999991153438</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974191</v>
+        <v>0.6350852784974192</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>0.6350853554678823</v>
       </c>
       <c r="Q9">
-        <v>3.122514877778262E-06</v>
+        <v>3.122514899795634E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215399</v>
+        <v>0.6350852774215401</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085357417003</v>
+        <v>0.6350853574170033</v>
       </c>
       <c r="Q10">
-        <v>3.269523495153285E-06</v>
+        <v>3.269523517014415E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942343</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836003</v>
+        <v>0.6350852768836004</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -21492,7 +21492,7 @@
         <v>0.6350853583915637</v>
       </c>
       <c r="Q11">
-        <v>3.343027818503198E-06</v>
+        <v>3.343027834527574E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.635085292483848</v>
+        <v>0.6350852924838483</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -21554,7 +21554,7 @@
         <v>0.6350853301293099</v>
       </c>
       <c r="Q12">
-        <v>1.211402719897191E-06</v>
+        <v>1.2114027309931E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.635085292483848</v>
+        <v>0.6350852924838483</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -21616,7 +21616,7 @@
         <v>0.6350853301293099</v>
       </c>
       <c r="Q13">
-        <v>1.211402719897191E-06</v>
+        <v>1.2114027309931E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700302</v>
+        <v>0.6350852908700305</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -21678,13 +21678,13 @@
         <v>0.6350853330529916</v>
       </c>
       <c r="Q14">
-        <v>1.431915701448659E-06</v>
+        <v>1.431915745243626E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261687</v>
+        <v>-179.9999992261686</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941507</v>
+        <v>0.6350852897941509</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021122</v>
+        <v>0.6350853350021123</v>
       </c>
       <c r="Q15">
-        <v>1.57892429938476E-06</v>
+        <v>1.578924317574367E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217878</v>
+        <v>0.6350852930217881</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547492</v>
+        <v>0.6350853291547496</v>
       </c>
       <c r="Q16">
-        <v>1.137898416459741E-06</v>
+        <v>1.137898427609579E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217878</v>
+        <v>0.6350852930217881</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547492</v>
+        <v>0.6350853291547496</v>
       </c>
       <c r="Q17">
-        <v>1.137898416459741E-06</v>
+        <v>1.137898427609579E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803325</v>
+        <v>0.6350852881803333</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -21926,13 +21926,13 @@
         <v>0.6350853379257945</v>
       </c>
       <c r="Q18">
-        <v>1.79943727663321E-06</v>
+        <v>1.799437353743119E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991997818</v>
+        <v>-179.9999991997817</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285745</v>
+        <v>0.6350852860285755</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -21988,13 +21988,13 @@
         <v>0.6350853418240366</v>
       </c>
       <c r="Q19">
-        <v>2.093454560153731E-06</v>
+        <v>2.093454640675652E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786722</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147561</v>
+        <v>0.635085284414757</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477182</v>
+        <v>0.6350853447477181</v>
       </c>
       <c r="Q20">
-        <v>2.313967526108004E-06</v>
+        <v>2.313967618249073E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628403</v>
+        <v>-179.9999991628401</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768165</v>
+        <v>0.6350852838768174</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222787</v>
+        <v>0.6350853457222786</v>
       </c>
       <c r="Q21">
-        <v>2.387471836955703E-06</v>
+        <v>2.387471929042843E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575629</v>
+        <v>-179.9999991575628</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,10 +22207,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.7350301887429</v>
+        <v>57.73503018874289</v>
       </c>
       <c r="D2">
-        <v>57.73503019620925</v>
+        <v>57.73503019620926</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -22228,13 +22228,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228433535000502E-09</v>
+        <v>4.22844030966431E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>-179.9999999948366</v>
       </c>
       <c r="T2">
-        <v>57.73503019183062</v>
+        <v>57.7350301918306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,22 +22302,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478028</v>
+        <v>0.6350852933478033</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853280315721</v>
+        <v>0.6350853280315722</v>
       </c>
       <c r="Q3">
-        <v>1.037873682888171E-06</v>
+        <v>1.037873634336318E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,22 +22364,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269516</v>
+        <v>0.6350852831269528</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482212</v>
+        <v>0.6350853465482215</v>
       </c>
       <c r="Q4">
-        <v>2.434455684703729E-06</v>
+        <v>2.434455815525662E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991224676</v>
+        <v>-179.9999991224675</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852852787092</v>
+        <v>0.6350852852787093</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499792</v>
+        <v>0.6350853426499791</v>
       </c>
       <c r="Q5">
-        <v>2.140438371379319E-06</v>
+        <v>2.140438321904479E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510716</v>
+        <v>0.6350852820510717</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973421</v>
+        <v>0.635085348497342</v>
       </c>
       <c r="Q6">
-        <v>2.581464261246206E-06</v>
+        <v>2.581464217029138E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613736</v>
+        <v>0.6350852793613738</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0.6350853533701444</v>
       </c>
       <c r="Q7">
-        <v>2.948985845010595E-06</v>
+        <v>2.948985794580701E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999990855258</v>
+        <v>-179.9999990855259</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234341</v>
+        <v>0.6350852788234344</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447051</v>
+        <v>0.6350853543447048</v>
       </c>
       <c r="Q8">
-        <v>3.022490162453037E-06</v>
+        <v>3.022490111973376E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802485</v>
+        <v>-179.9999990802486</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475549</v>
+        <v>0.6350852777475551</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -22683,13 +22683,13 @@
         <v>0.6350853562938259</v>
       </c>
       <c r="Q9">
-        <v>3.169498785983045E-06</v>
+        <v>3.169498729530442E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696938</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716755</v>
+        <v>0.6350852766716757</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085358242947</v>
+        <v>0.6350853582429468</v>
       </c>
       <c r="Q10">
-        <v>3.316507403567272E-06</v>
+        <v>3.316507346969844E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,22 +22798,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337357</v>
+        <v>0.635085276133736</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175074</v>
+        <v>0.6350853592175073</v>
       </c>
       <c r="Q11">
-        <v>3.390011727021798E-06</v>
+        <v>3.39001167615743E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9999990538616</v>
+        <v>-179.9999990538617</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339834</v>
+        <v>0.6350852917339839</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552534</v>
+        <v>0.6350853309552535</v>
       </c>
       <c r="Q12">
-        <v>1.258386591515016E-06</v>
+        <v>1.258386548025917E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,22 +22922,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339834</v>
+        <v>0.6350852917339839</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552534</v>
+        <v>0.6350853309552535</v>
       </c>
       <c r="Q13">
-        <v>1.258386591515016E-06</v>
+        <v>1.258386548025917E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201656</v>
+        <v>0.6350852901201662</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>0.6350853338789353</v>
       </c>
       <c r="Q14">
-        <v>1.478899554218753E-06</v>
+        <v>1.478899598509293E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442862</v>
+        <v>0.6350852890442865</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853358280562</v>
+        <v>0.635085335828056</v>
       </c>
       <c r="Q15">
-        <v>1.625908182261734E-06</v>
+        <v>1.625908139189833E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999991805185</v>
+        <v>-179.9999991805186</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,7 +23108,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719235</v>
+        <v>0.6350852922719237</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -23117,13 +23117,13 @@
         <v>0.6350853299806931</v>
       </c>
       <c r="Q16">
-        <v>1.184882287972955E-06</v>
+        <v>1.184882244533623E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992121827</v>
+        <v>-179.9999992121828</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719235</v>
+        <v>0.6350852922719237</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -23179,13 +23179,13 @@
         <v>0.6350853299806931</v>
       </c>
       <c r="Q17">
-        <v>1.184882287972955E-06</v>
+        <v>1.184882244533623E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992121827</v>
+        <v>-179.9999992121828</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.635085287430468</v>
+        <v>0.6350852874304687</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517376</v>
+        <v>0.6350853387517377</v>
       </c>
       <c r="Q18">
-        <v>1.846421142179209E-06</v>
+        <v>1.846421229898147E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787099</v>
+        <v>0.6350852852787108</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499796</v>
+        <v>0.6350853426499797</v>
       </c>
       <c r="Q19">
-        <v>2.140438415716232E-06</v>
+        <v>2.14043851983907E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085283664891</v>
+        <v>0.6350852836648924</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736608</v>
+        <v>0.6350853455736613</v>
       </c>
       <c r="Q20">
-        <v>2.360951382021436E-06</v>
+        <v>2.36095150152019E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.999999127745</v>
+        <v>-179.9999991277449</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269516</v>
+        <v>0.635085283126953</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482214</v>
+        <v>0.6350853465482217</v>
       </c>
       <c r="Q21">
-        <v>2.434455681408091E-06</v>
+        <v>2.434455812422732E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991224676</v>
+        <v>-179.9999991224675</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714036</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646412</v>
+        <v>0.01094540889646411</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -23694,7 +23694,7 @@
         <v>-90.55768082925519</v>
       </c>
       <c r="S4">
-        <v>149.922129629769</v>
+        <v>149.9221296297689</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>1.09649687753996</v>
       </c>
       <c r="O9">
-        <v>1.086862152117769</v>
+        <v>1.08686215211777</v>
       </c>
       <c r="P9">
         <v>1.090352557044242</v>
@@ -24680,7 +24680,7 @@
         <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165358</v>
+        <v>29.52465668165357</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24748,7 +24748,7 @@
         <v>-90.55768082925519</v>
       </c>
       <c r="S21">
-        <v>149.922129629769</v>
+        <v>149.9221296297689</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -24858,13 +24858,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25003,7 +25003,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q4">
-        <v>29.52465668254691</v>
+        <v>29.52465668254692</v>
       </c>
       <c r="R4">
         <v>-90.55768082819935</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25251,7 +25251,7 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716144</v>
+        <v>29.52465668716143</v>
       </c>
       <c r="R8">
         <v>-90.55768081750685</v>
@@ -25378,7 +25378,7 @@
         <v>29.52465668946869</v>
       </c>
       <c r="R10">
-        <v>-90.5576808121606</v>
+        <v>-90.55768081216061</v>
       </c>
       <c r="S10">
         <v>149.9221296395165</v>
@@ -25623,7 +25623,7 @@
         <v>1.090352556938001</v>
       </c>
       <c r="Q14">
-        <v>29.52465667504833</v>
+        <v>29.52465667504832</v>
       </c>
       <c r="R14">
         <v>-90.55768084557464</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -26057,7 +26057,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q21">
-        <v>29.52465668254691</v>
+        <v>29.52465668254692</v>
       </c>
       <c r="R21">
         <v>-90.55768082819935</v>
@@ -26155,7 +26155,7 @@
         <v>46.18802315050825</v>
       </c>
       <c r="D2">
-        <v>46.18802315729567</v>
+        <v>46.18802315729565</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -26164,22 +26164,22 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320133</v>
+        <v>266.6666760320131</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -26194,7 +26194,7 @@
         <v>0.577350269184803</v>
       </c>
       <c r="Q2">
-        <v>4.534680675717328E-09</v>
+        <v>4.53469671283101E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393532</v>
+        <v>0.5773502543393527</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594395</v>
+        <v>0.577350285559439</v>
       </c>
       <c r="Q3">
-        <v>1.029154399897922E-06</v>
+        <v>1.029154374449885E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,16 +26309,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350248516829</v>
+        <v>0.5773502485168286</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619095</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q4">
-        <v>3.022040183878288E-06</v>
+        <v>3.022040113872918E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426237</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577350301587705</v>
+        <v>0.5773503015877046</v>
       </c>
       <c r="Q5">
-        <v>2.602485328888716E-06</v>
+        <v>2.602485312330409E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039322</v>
+        <v>0.5773502479039317</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990113</v>
+        <v>0.5773503079990108</v>
       </c>
       <c r="Q6">
-        <v>3.231817709199556E-06</v>
+        <v>3.231817692082346E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716895</v>
+        <v>0.577350246371689</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417663</v>
+        <v>0.5773503133417658</v>
       </c>
       <c r="Q7">
-        <v>3.756261355173333E-06</v>
+        <v>3.756261343959395E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094307</v>
+        <v>-179.9999999094308</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652408</v>
+        <v>0.5773502460652404</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103175</v>
+        <v>0.577350314410317</v>
       </c>
       <c r="Q8">
-        <v>3.861150080197962E-06</v>
+        <v>3.86115006256934E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355377</v>
+        <v>-179.9999999355378</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,16 +26619,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523436</v>
+        <v>0.5773502454523433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474196</v>
+        <v>0.5773503165474191</v>
       </c>
       <c r="Q9">
-        <v>4.07092755328945E-06</v>
+        <v>4.070927535458695E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394466</v>
+        <v>0.5773502448394463</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845219</v>
+        <v>0.5773503186845214</v>
       </c>
       <c r="Q10">
-        <v>4.280705026337188E-06</v>
+        <v>4.280705008351796E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600196</v>
+        <v>179.9999999600195</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329981</v>
+        <v>0.5773502445329977</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.577350319753073</v>
+        <v>0.5773503197530725</v>
       </c>
       <c r="Q11">
-        <v>4.385593765357783E-06</v>
+        <v>4.38559372823549E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339125</v>
+        <v>179.9999999339124</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,22 +26805,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200075</v>
+        <v>0.5773502534200069</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577350288765093</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q12">
-        <v>1.343820590061263E-06</v>
+        <v>1.343820581779065E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26867,22 +26867,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200075</v>
+        <v>0.5773502534200069</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.577350288765093</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q13">
-        <v>1.343820590061263E-06</v>
+        <v>1.343820581779065E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006612</v>
+        <v>0.5773502525006607</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707459</v>
+        <v>0.5773502919707453</v>
       </c>
       <c r="Q14">
-        <v>1.658486766224535E-06</v>
+        <v>1.658486708902928E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,22 +26991,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.577350251887764</v>
+        <v>0.5773502518877636</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078478</v>
+        <v>0.5773502941078473</v>
       </c>
       <c r="Q15">
-        <v>1.86826421918656E-06</v>
+        <v>1.868264196927113E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395041</v>
+        <v>-179.9999994395042</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -27053,16 +27053,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.577350253726456</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965418</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q16">
-        <v>1.23893186498143E-06</v>
+        <v>1.238931850391695E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577350253726456</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965418</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q17">
-        <v>1.23893186498143E-06</v>
+        <v>1.238931850391695E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,22 +27177,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.577350250968418</v>
+        <v>0.5773502509684175</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135013</v>
+        <v>0.5773502973135002</v>
       </c>
       <c r="Q18">
-        <v>2.182930379312997E-06</v>
+        <v>2.182930332648037E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178251</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27239,22 +27239,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426233</v>
+        <v>0.5773502497426229</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877055</v>
+        <v>0.5773503015877041</v>
       </c>
       <c r="Q19">
-        <v>2.602485271113977E-06</v>
+        <v>2.602485220093819E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222532</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -27301,22 +27301,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232776</v>
+        <v>0.5773502488232771</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933585</v>
+        <v>0.5773503047933568</v>
       </c>
       <c r="Q20">
-        <v>2.917151453385768E-06</v>
+        <v>2.917151389097013E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005743</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -27363,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168289</v>
+        <v>0.5773502485168286</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619095</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q21">
-        <v>3.022040171713137E-06</v>
+        <v>3.022040107370809E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>46.18802315050825</v>
       </c>
       <c r="D2">
-        <v>46.18802315729567</v>
+        <v>46.18802315729565</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -27975,22 +27975,22 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320133</v>
+        <v>266.6666760320131</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -28005,7 +28005,7 @@
         <v>0.577350269184803</v>
       </c>
       <c r="Q2">
-        <v>4.534680675717328E-09</v>
+        <v>4.53469671283101E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393532</v>
+        <v>0.5773502543393527</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594395</v>
+        <v>0.577350285559439</v>
       </c>
       <c r="Q3">
-        <v>1.029154399897922E-06</v>
+        <v>1.029154374449885E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,16 +28120,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350248516829</v>
+        <v>0.5773502485168286</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619095</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q4">
-        <v>3.022040183878288E-06</v>
+        <v>3.022040113872918E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -28182,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426237</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577350301587705</v>
+        <v>0.5773503015877046</v>
       </c>
       <c r="Q5">
-        <v>2.602485328888716E-06</v>
+        <v>2.602485312330409E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -28244,16 +28244,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039322</v>
+        <v>0.5773502479039317</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990113</v>
+        <v>0.5773503079990108</v>
       </c>
       <c r="Q6">
-        <v>3.231817709199556E-06</v>
+        <v>3.231817692082346E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716895</v>
+        <v>0.577350246371689</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417663</v>
+        <v>0.5773503133417658</v>
       </c>
       <c r="Q7">
-        <v>3.756261355173333E-06</v>
+        <v>3.756261343959395E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094307</v>
+        <v>-179.9999999094308</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652408</v>
+        <v>0.5773502460652404</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103175</v>
+        <v>0.577350314410317</v>
       </c>
       <c r="Q8">
-        <v>3.861150080197962E-06</v>
+        <v>3.86115006256934E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355377</v>
+        <v>-179.9999999355378</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,16 +28430,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523436</v>
+        <v>0.5773502454523433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474196</v>
+        <v>0.5773503165474191</v>
       </c>
       <c r="Q9">
-        <v>4.07092755328945E-06</v>
+        <v>4.070927535458695E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394466</v>
+        <v>0.5773502448394463</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845219</v>
+        <v>0.5773503186845214</v>
       </c>
       <c r="Q10">
-        <v>4.280705026337188E-06</v>
+        <v>4.280705008351796E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600196</v>
+        <v>179.9999999600195</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329981</v>
+        <v>0.5773502445329977</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.577350319753073</v>
+        <v>0.5773503197530725</v>
       </c>
       <c r="Q11">
-        <v>4.385593765357783E-06</v>
+        <v>4.38559372823549E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339125</v>
+        <v>179.9999999339124</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,22 +28616,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200075</v>
+        <v>0.5773502534200069</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577350288765093</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q12">
-        <v>1.343820590061263E-06</v>
+        <v>1.343820581779065E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28678,22 +28678,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200075</v>
+        <v>0.5773502534200069</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.577350288765093</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q13">
-        <v>1.343820590061263E-06</v>
+        <v>1.343820581779065E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -28740,22 +28740,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006612</v>
+        <v>0.5773502525006607</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707459</v>
+        <v>0.5773502919707453</v>
       </c>
       <c r="Q14">
-        <v>1.658486766224535E-06</v>
+        <v>1.658486708902928E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,22 +28802,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.577350251887764</v>
+        <v>0.5773502518877636</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078478</v>
+        <v>0.5773502941078473</v>
       </c>
       <c r="Q15">
-        <v>1.86826421918656E-06</v>
+        <v>1.868264196927113E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395041</v>
+        <v>-179.9999994395042</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -28864,16 +28864,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.577350253726456</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965418</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q16">
-        <v>1.23893186498143E-06</v>
+        <v>1.238931850391695E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577350253726456</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965418</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q17">
-        <v>1.23893186498143E-06</v>
+        <v>1.238931850391695E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,22 +28988,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.577350250968418</v>
+        <v>0.5773502509684175</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135013</v>
+        <v>0.5773502973135002</v>
       </c>
       <c r="Q18">
-        <v>2.182930379312997E-06</v>
+        <v>2.182930332648037E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178251</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -29050,22 +29050,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426233</v>
+        <v>0.5773502497426229</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877055</v>
+        <v>0.5773503015877041</v>
       </c>
       <c r="Q19">
-        <v>2.602485271113977E-06</v>
+        <v>2.602485220093819E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222532</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -29112,22 +29112,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232776</v>
+        <v>0.5773502488232771</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933585</v>
+        <v>0.5773503047933568</v>
       </c>
       <c r="Q20">
-        <v>2.917151453385768E-06</v>
+        <v>2.917151389097013E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005743</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168289</v>
+        <v>0.5773502485168286</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619095</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q21">
-        <v>3.022040171713137E-06</v>
+        <v>3.022040107370809E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0.8054271382329722</v>
       </c>
       <c r="D2">
-        <v>0.8054271382347128</v>
+        <v>0.8054271382347127</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -29290,22 +29290,22 @@
         <v>4.650135750714364</v>
       </c>
       <c r="G2">
-        <v>4.650135750724414</v>
+        <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -29329,7 +29329,7 @@
         <v>149.9123040588406</v>
       </c>
       <c r="T2">
-        <v>0.8054271382348199</v>
+        <v>0.8054271382348197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -29435,7 +29435,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -29500,7 +29500,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397394</v>
+        <v>0.9963798867397397</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29627,7 +29627,7 @@
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177871</v>
+        <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
         <v>29.46075732700073</v>
@@ -29689,7 +29689,7 @@
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288177</v>
+        <v>0.9900480150288175</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -29934,7 +29934,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P12">
         <v>0.9900480147640851</v>
@@ -29943,10 +29943,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -29996,7 +29996,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
@@ -30005,10 +30005,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -30058,10 +30058,10 @@
         <v>0.9963798868630489</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378237</v>
+        <v>0.9864427565378235</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971766</v>
+        <v>0.9900480147971764</v>
       </c>
       <c r="Q14">
         <v>29.46075730705855</v>
@@ -30303,10 +30303,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
-        <v>0.9864427565509826</v>
+        <v>0.9864427565509823</v>
       </c>
       <c r="P18">
         <v>0.9900480148523292</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -30596,7 +30596,7 @@
         <v>0.8054271382329722</v>
       </c>
       <c r="D2">
-        <v>0.8054271382347128</v>
+        <v>0.8054271382347127</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -30605,22 +30605,22 @@
         <v>4.650135750714364</v>
       </c>
       <c r="G2">
-        <v>4.650135750724414</v>
+        <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.0124379646591162</v>
+        <v>0.01243796465911618</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -30644,7 +30644,7 @@
         <v>149.9123040588406</v>
       </c>
       <c r="T2">
-        <v>0.8054271382348199</v>
+        <v>0.8054271382348197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -30815,7 +30815,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397394</v>
+        <v>0.9963798867397397</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -30942,7 +30942,7 @@
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177871</v>
+        <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
         <v>29.46075732700073</v>
@@ -31004,7 +31004,7 @@
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288177</v>
+        <v>0.9900480150288175</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -31249,7 +31249,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P12">
         <v>0.9900480147640851</v>
@@ -31258,10 +31258,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -31311,7 +31311,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
@@ -31320,10 +31320,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -31373,10 +31373,10 @@
         <v>0.9963798868630489</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378237</v>
+        <v>0.9864427565378235</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971766</v>
+        <v>0.9900480147971764</v>
       </c>
       <c r="Q14">
         <v>29.46075730705855</v>
@@ -31618,10 +31618,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
-        <v>0.9864427565509826</v>
+        <v>0.9864427565509823</v>
       </c>
       <c r="P18">
         <v>0.9900480148523292</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -34403,16 +34403,16 @@
         <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714033</v>
+        <v>0.01094540889714036</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646412</v>
+        <v>0.01094540889646411</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -34424,10 +34424,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833884</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693013536742588E-11</v>
+        <v>-8.693096396114595E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,16 +34477,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343819</v>
+        <v>0.9526279482343817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293724</v>
       </c>
       <c r="Q3">
-        <v>8.313217146818745E-08</v>
+        <v>8.313219097690729E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,22 +34536,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656298</v>
+        <v>0.9526279338656304</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981216</v>
+        <v>0.9526279956981213</v>
       </c>
       <c r="Q4">
-        <v>5.152360734069222E-07</v>
+        <v>5.152361736650839E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34595,7 +34595,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906297</v>
+        <v>0.9526279368906296</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -34604,7 +34604,7 @@
         <v>0.9526279926731211</v>
       </c>
       <c r="Q5">
-        <v>4.242668085470216E-07</v>
+        <v>4.242668341067501E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -34663,7 +34663,7 @@
         <v>0.952627997210621</v>
       </c>
       <c r="Q6">
-        <v>5.607206711530225E-07</v>
+        <v>5.607206963780466E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -34719,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918707</v>
+        <v>0.9526280009918705</v>
       </c>
       <c r="Q7">
-        <v>6.744322191901977E-07</v>
+        <v>6.744322402857676E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156284</v>
+        <v>0.9526279278156281</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>0.9526280017481206</v>
       </c>
       <c r="Q8">
-        <v>6.971745294296472E-07</v>
+        <v>6.971745466376352E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34831,7 +34831,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.952627926303128</v>
+        <v>0.9526279263031278</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -34840,7 +34840,7 @@
         <v>0.9526280032606206</v>
       </c>
       <c r="Q9">
-        <v>7.426591460551129E-07</v>
+        <v>7.426591708526004E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -34896,10 +34896,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731207</v>
+        <v>0.9526280047731205</v>
       </c>
       <c r="Q10">
-        <v>7.881437599971691E-07</v>
+        <v>7.881437808466066E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -34949,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343777</v>
+        <v>0.9526279240343773</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -34958,7 +34958,7 @@
         <v>0.9526280055293707</v>
       </c>
       <c r="Q11">
-        <v>8.108860644772693E-07</v>
+        <v>8.108860852943429E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656313</v>
+        <v>0.9526279459656312</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981228</v>
+        <v>0.9526279835981226</v>
       </c>
       <c r="Q12">
-        <v>1.513590910363716E-07</v>
+        <v>1.513591095292669E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656313</v>
+        <v>0.9526279459656312</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981228</v>
+        <v>0.9526279835981226</v>
       </c>
       <c r="Q13">
-        <v>1.513590910363716E-07</v>
+        <v>1.513591095292669E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35132,10 +35132,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668724</v>
+        <v>0.9526279858668719</v>
       </c>
       <c r="Q14">
-        <v>2.195860274356157E-07</v>
+        <v>2.195860844758116E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843808</v>
+        <v>0.9526279421843805</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>0.9526279873793718</v>
       </c>
       <c r="Q15">
-        <v>2.650706457822202E-07</v>
+        <v>2.650706717371211E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279467218816</v>
+        <v>0.9526279467218814</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418727</v>
+        <v>0.9526279828418724</v>
       </c>
       <c r="Q16">
-        <v>1.286167798929754E-07</v>
+        <v>1.286168022734527E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279467218816</v>
+        <v>0.9526279467218814</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418727</v>
+        <v>0.9526279828418724</v>
       </c>
       <c r="Q17">
-        <v>1.286167798929754E-07</v>
+        <v>1.286168022734527E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156306</v>
+        <v>0.9526279399156309</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481222</v>
+        <v>0.9526279896481217</v>
       </c>
       <c r="Q18">
-        <v>3.332975752556473E-07</v>
+        <v>3.332976634639593E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666935</v>
+        <v>179.9999996666936</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,22 +35421,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906302</v>
+        <v>0.9526279368906307</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731219</v>
+        <v>0.9526279926731215</v>
       </c>
       <c r="Q19">
-        <v>4.242668270353724E-07</v>
+        <v>4.242669226370637E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35480,16 +35480,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218798</v>
+        <v>0.9526279346218804</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418716</v>
+        <v>0.9526279949418711</v>
       </c>
       <c r="Q20">
-        <v>4.924937671119642E-07</v>
+        <v>4.924938713963375E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656298</v>
+        <v>0.9526279338656304</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981216</v>
+        <v>0.9526279956981213</v>
       </c>
       <c r="Q21">
-        <v>5.152360732073298E-07</v>
+        <v>5.152361774593389E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
   </sheetData>
